--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,36 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/wmitr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\io-model\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A00208-294F-5D43-8D6C-BB5F0A2A2658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A490C9-3276-4E53-8826-E26BCEFC2644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="WMITR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Congressional Budget Office</t>
-  </si>
-  <si>
-    <t>Effective Marginal Tax Rates for Low- and Moderate-Income Workers</t>
-  </si>
-  <si>
-    <t>http://www.cbo.gov/publication/43709</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Workers</t>
   </si>
@@ -41,19 +44,16 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Summary, headline of third paragraph</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>450% of the federal poverty level.</t>
-  </si>
-  <si>
-    <t>This is the average marginal income tax rate faced by workers who earn less than</t>
-  </si>
-  <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>Census and NerdWallet</t>
+  </si>
+  <si>
+    <t>California has a median household income of $78,672, which puts it in the 6% marginal income tax bracket</t>
   </si>
 </sst>
 </file>
@@ -456,69 +456,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -530,25 +510,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,39 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\io-model\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/wmitr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A490C9-3276-4E53-8826-E26BCEFC2644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A00208-294F-5D43-8D6C-BB5F0A2A2658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="WMITR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Congressional Budget Office</t>
+  </si>
+  <si>
+    <t>Effective Marginal Tax Rates for Low- and Moderate-Income Workers</t>
+  </si>
+  <si>
+    <t>http://www.cbo.gov/publication/43709</t>
+  </si>
   <si>
     <t>Workers</t>
   </si>
@@ -44,16 +41,19 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Summary, headline of third paragraph</t>
+  </si>
+  <si>
     <t>Notes:</t>
   </si>
   <si>
+    <t>450% of the federal poverty level.</t>
+  </si>
+  <si>
+    <t>This is the average marginal income tax rate faced by workers who earn less than</t>
+  </si>
+  <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
-  </si>
-  <si>
-    <t>Census and NerdWallet</t>
-  </si>
-  <si>
-    <t>California has a median household income of $78,672, which puts it in the 6% marginal income tax bracket</t>
   </si>
 </sst>
 </file>
@@ -456,49 +456,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -510,25 +530,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
